--- a/ReadWritedata/Test_Cust.xlsx
+++ b/ReadWritedata/Test_Cust.xlsx
@@ -425,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>95778</t>
+          <t>81885</t>
         </is>
       </c>
     </row>

--- a/ReadWritedata/Test_Cust.xlsx
+++ b/ReadWritedata/Test_Cust.xlsx
@@ -425,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>81885</t>
+          <t>41209</t>
         </is>
       </c>
     </row>

--- a/ReadWritedata/Test_Cust.xlsx
+++ b/ReadWritedata/Test_Cust.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>41209</t>
+          <t>60100</t>
         </is>
       </c>
     </row>

--- a/ReadWritedata/Test_Cust.xlsx
+++ b/ReadWritedata/Test_Cust.xlsx
@@ -425,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>60100</t>
+          <t>61427</t>
         </is>
       </c>
     </row>
